--- a/dhi_models.xlsx
+++ b/dhi_models.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Hyperparameters</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Preprocessors</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Folds</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Preprocessors</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Insert D/T</t>
         </is>
@@ -468,22 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'accuracy': 0.519, 'precision_macro': 0.513, 'recall_macro': 0.519, 'f1_macro': 0.5124}</t>
+          <t>{'accuracy': 0.5188, 'precision_macro': 0.5093, 'recall_macro': 0.5188, 'f1_macro': 0.5095}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>{'C': 0.5, 'class_weight': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1, 'l1_ratio': None, 'max_iter': 1000, 'multi_class': 'deprecated', 'n_jobs': None, 'penalty': 'l2', 'random_state': None, 'solver': 'newton-cg', 'tol': 0.0001, 'verbose': 0, 'warm_start': False}</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>StratifiedKFold(n_splits=5, random_state=42, shuffle=True)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10/12/2024 18:05</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10/13/2024 12:57</t>
         </is>
       </c>
     </row>
@@ -495,22 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'accuracy': 0.519, 'precision_macro': 0.513, 'recall_macro': 0.519, 'f1_macro': 0.5124}</t>
+          <t>{'accuracy': 0.5188, 'precision_macro': 0.5092, 'recall_macro': 0.5188, 'f1_macro': 0.5095}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>{'C': 0.25, 'class_weight': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1, 'l1_ratio': None, 'max_iter': 1200, 'multi_class': 'deprecated', 'n_jobs': None, 'penalty': 'l2', 'random_state': None, 'solver': 'saga', 'tol': 0.0001, 'verbose': 0, 'warm_start': False}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>StratifiedKFold(n_splits=5, random_state=42, shuffle=True)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10/12/2024 18:05</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10/13/2024 12:59</t>
         </is>
       </c>
     </row>
@@ -522,22 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'accuracy': 0.519, 'precision_macro': 0.513, 'recall_macro': 0.519, 'f1_macro': 0.5124}</t>
+          <t>{'accuracy': 0.5191, 'precision_macro': 0.5095, 'recall_macro': 0.5191, 'f1_macro': 0.5097}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1, 'l1_ratio': 0.25, 'max_iter': 1500, 'multi_class': 'deprecated', 'n_jobs': None, 'penalty': 'elasticnet', 'random_state': None, 'solver': 'saga', 'tol': 1e-06, 'verbose': 0, 'warm_start': False}</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>StratifiedKFold(n_splits=5, random_state=42, shuffle=True)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10/12/2024 18:05</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10/13/2024 13:04</t>
         </is>
       </c>
     </row>
@@ -549,12 +569,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'accuracy': 0.5193, 'precision_macro': 0.5099, 'recall_macro': 0.5194, 'f1_macro': 0.5101}</t>
+          <t>{'accuracy': 0.516, 'precision_macro': 0.5062, 'recall_macro': 0.516, 'f1_macro': 0.5064}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>StratifiedKFold(n_splits=5, random_state=42, shuffle=True)</t>
+          <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1, 'l1_ratio': None, 'max_iter': 100, 'multi_class': 'deprecated', 'n_jobs': None, 'penalty': 'l2', 'random_state': None, 'solver': 'lbfgs', 'tol': 0.0001, 'verbose': 0, 'warm_start': False}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -564,7 +584,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10/12/2024 18:43</t>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10/13/2024 14:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>{'accuracy': 0.518, 'precision_macro': 0.5088, 'recall_macro': 0.518, 'f1_macro': 0.5089}</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1, 'l1_ratio': None, 'max_iter': 100, 'multi_class': 'deprecated', 'n_jobs': None, 'penalty': 'l2', 'random_state': None, 'solver': 'lbfgs', 'tol': 0.0001, 'verbose': 0, 'warm_start': False}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[StandardScaler(), OneHotEncoder(handle_unknown='ignore', sparse_output=False)]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>StratifiedKFold(n_splits=5, random_state=None, shuffle=True)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10/13/2024 16:23</t>
         </is>
       </c>
     </row>
